--- a/data/0 - Compilado Relatórios de Crédito.xlsx
+++ b/data/0 - Compilado Relatórios de Crédito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acquavero-my.sharepoint.com/personal/jose_zanichelli_avin_com_br/Documents/Documentos/Rating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{3C157A89-BADB-4FA9-8190-94F55AE9C244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F6A1B20-F69C-4554-982A-49886F06D268}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{3C157A89-BADB-4FA9-8190-94F55AE9C244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3F13C0C-6569-4A7A-BAA5-5ED4401B0302}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B51BBA0F-CA22-4792-BA59-EBAA2B205FC2}"/>
+    <workbookView xWindow="-28920" yWindow="1215" windowWidth="29040" windowHeight="15840" xr2:uid="{B51BBA0F-CA22-4792-BA59-EBAA2B205FC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatórios de Crédito" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
   <si>
     <t>Relatórios Enviados</t>
   </si>
@@ -445,12 +467,48 @@
 A probabilidade de reestruturação ao longo de 11 anos é de média para alta. Isto sem mencionar a possibilidade de default, e necessidade de execução de garantias.
 Considerando o mercado após a liquidação, a atratividade deste papel se baseia na possibilidade de uma redução significativa da Taxa Selic, gerando assim demanda no mercado secundário por fundos de investimento do Tipo FI-Infra</t>
   </si>
+  <si>
+    <t>Rating Escala</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Escala</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>CC/C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
@@ -487,7 +545,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,8 +558,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -518,11 +582,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -556,6 +725,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,24 +1126,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D710D7BC-A621-4779-A7C3-78A123A0F851}">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.5546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="43" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.44140625" customWidth="1"/>
-    <col min="8" max="8" width="27.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="43" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,14 +1156,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -980,14 +1179,18 @@
       <c r="D2" s="4">
         <v>76</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="str" cm="1">
+        <f t="array" ref="E2">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D2&gt;=Planilha2!$H$2:$H$9)*(D2&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>A</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1000,14 +1203,18 @@
       <c r="D3" s="4">
         <v>74</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="str" cm="1">
+        <f t="array" ref="E3">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D3&gt;=Planilha2!$H$2:$H$9)*(D3&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>A</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1020,14 +1227,18 @@
       <c r="D4" s="4">
         <v>72</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="str" cm="1">
+        <f t="array" ref="E4">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D4&gt;=Planilha2!$H$2:$H$9)*(D4&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>A</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1040,14 +1251,18 @@
       <c r="D5" s="4">
         <v>70</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="str" cm="1">
+        <f t="array" ref="E5">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D5&gt;=Planilha2!$H$2:$H$9)*(D5&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>A</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -1060,14 +1275,18 @@
       <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="str" cm="1">
+        <f t="array" ref="E6">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D6&gt;=Planilha2!$H$2:$H$9)*(D6&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1080,15 +1299,19 @@
       <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="4" t="str" cm="1">
+        <f t="array" ref="E7">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D7&gt;=Planilha2!$H$2:$H$9)*(D7&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1101,15 +1324,19 @@
       <c r="D8" s="4">
         <v>80</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="4" t="str" cm="1">
+        <f t="array" ref="E8">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D8&gt;=Planilha2!$H$2:$H$9)*(D8&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>AA</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -1122,15 +1349,19 @@
       <c r="D9" s="4">
         <v>80</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4" t="str" cm="1">
+        <f t="array" ref="E9">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D9&gt;=Planilha2!$H$2:$H$9)*(D9&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>AA</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1143,14 +1374,18 @@
       <c r="D10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="4" t="str" cm="1">
+        <f t="array" ref="E10">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D10&gt;=Planilha2!$H$2:$H$9)*(D10&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1163,14 +1398,18 @@
       <c r="D11" s="4">
         <v>75</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="4" t="str" cm="1">
+        <f t="array" ref="E11">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D11&gt;=Planilha2!$H$2:$H$9)*(D11&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>A</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1183,14 +1422,18 @@
       <c r="D12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="4" t="str" cm="1">
+        <f t="array" ref="E12">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D12&gt;=Planilha2!$H$2:$H$9)*(D12&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
@@ -1203,14 +1446,18 @@
       <c r="D13" s="4">
         <v>61</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="4" t="str" cm="1">
+        <f t="array" ref="E13">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D13&gt;=Planilha2!$H$2:$H$9)*(D13&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>BBB</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
@@ -1223,14 +1470,18 @@
       <c r="D14" s="4">
         <v>63</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="4" t="str" cm="1">
+        <f t="array" ref="E14">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D14&gt;=Planilha2!$H$2:$H$9)*(D14&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>BBB</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -1243,14 +1494,18 @@
       <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="4" t="str" cm="1">
+        <f t="array" ref="E15">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D15&gt;=Planilha2!$H$2:$H$9)*(D15&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
@@ -1263,14 +1518,18 @@
       <c r="D16" s="4">
         <v>79</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="4" t="str" cm="1">
+        <f t="array" ref="E16">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D16&gt;=Planilha2!$H$2:$H$9)*(D16&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>A</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
@@ -1283,14 +1542,18 @@
       <c r="D17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="4" t="str" cm="1">
+        <f t="array" ref="E17">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D17&gt;=Planilha2!$H$2:$H$9)*(D17&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -1303,14 +1566,18 @@
       <c r="D18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="4" t="str" cm="1">
+        <f t="array" ref="E18">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D18&gt;=Planilha2!$H$2:$H$9)*(D18&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
@@ -1323,14 +1590,18 @@
       <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="4" t="str" cm="1">
+        <f t="array" ref="E19">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D19&gt;=Planilha2!$H$2:$H$9)*(D19&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -1343,14 +1614,18 @@
       <c r="D20" s="4">
         <v>51</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="4" t="str" cm="1">
+        <f t="array" ref="E20">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D20&gt;=Planilha2!$H$2:$H$9)*(D20&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>BB</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
@@ -1363,14 +1638,18 @@
       <c r="D21" s="4">
         <v>79</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="4" t="str" cm="1">
+        <f t="array" ref="E21">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D21&gt;=Planilha2!$H$2:$H$9)*(D21&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>A</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
@@ -1383,14 +1662,18 @@
       <c r="D22" s="4">
         <v>94</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="4" t="str" cm="1">
+        <f t="array" ref="E22">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D22&gt;=Planilha2!$H$2:$H$9)*(D22&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>AAA</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -1403,14 +1686,18 @@
       <c r="D23" s="4">
         <v>74</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="4" t="str" cm="1">
+        <f t="array" ref="E23">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D23&gt;=Planilha2!$H$2:$H$9)*(D23&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>A</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
@@ -1423,14 +1710,18 @@
       <c r="D24" s="4">
         <v>79</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="4" t="str" cm="1">
+        <f t="array" ref="E24">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D24&gt;=Planilha2!$H$2:$H$9)*(D24&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>A</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>44</v>
       </c>
@@ -1443,14 +1734,18 @@
       <c r="D25" s="4">
         <v>61</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="4" t="str" cm="1">
+        <f t="array" ref="E25">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D25&gt;=Planilha2!$H$2:$H$9)*(D25&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>BBB</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
@@ -1463,14 +1758,18 @@
       <c r="D26" s="4">
         <v>64</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="4" t="str" cm="1">
+        <f t="array" ref="E26">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D26&gt;=Planilha2!$H$2:$H$9)*(D26&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>BBB</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>46</v>
       </c>
@@ -1483,14 +1782,18 @@
       <c r="D27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="4" t="str" cm="1">
+        <f t="array" ref="E27">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D27&gt;=Planilha2!$H$2:$H$9)*(D27&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
@@ -1503,10 +1806,14 @@
       <c r="D28" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="4" t="str" cm="1">
+        <f t="array" ref="E28">IFERROR(INDEX(Planilha2!$J$2:$J$9,MATCH(1,(D28&gt;=Planilha2!$H$2:$H$9)*(D28&lt;=Planilha2!$I$2:$I$9),0)),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1516,18 +1823,18 @@
       <formula>NOT(ISERROR(SEARCH("Emissão",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E1048576">
+  <conditionalFormatting sqref="F2:F1048576">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Positivo">
-      <formula>NOT(ISERROR(SEARCH("Positivo",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Positivo",F2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Neutro,">
-      <formula>NOT(ISERROR(SEARCH("Neutro,",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Neutro,",F2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Requer Atenção">
-      <formula>NOT(ISERROR(SEARCH("Requer Atenção",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Requer Atenção",F2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Negativo">
-      <formula>NOT(ISERROR(SEARCH("Negativo",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Negativo",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1536,37 +1843,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6108E6C-3916-49B6-B0A2-F57CA4A867CE}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="H1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="H2" s="15">
+        <v>90</v>
+      </c>
+      <c r="I2" s="16">
+        <v>100</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="H3" s="15">
+        <v>80</v>
+      </c>
+      <c r="I3" s="16">
+        <v>89</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="H4" s="15">
+        <v>70</v>
+      </c>
+      <c r="I4" s="16">
+        <v>79</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
+      <c r="H5" s="15">
+        <v>60</v>
+      </c>
+      <c r="I5" s="16">
+        <v>69</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H6" s="15">
+        <v>50</v>
+      </c>
+      <c r="I6" s="16">
+        <v>59</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H7" s="15">
+        <v>40</v>
+      </c>
+      <c r="I7" s="16">
+        <v>49</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H8" s="15">
+        <v>30</v>
+      </c>
+      <c r="I8" s="16">
+        <v>39</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>29</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/0 - Compilado Relatórios de Crédito.xlsx
+++ b/data/0 - Compilado Relatórios de Crédito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acquavero-my.sharepoint.com/personal/jose_zanichelli_avin_com_br/Documents/Documentos/Rating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{3C157A89-BADB-4FA9-8190-94F55AE9C244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3F13C0C-6569-4A7A-BAA5-5ED4401B0302}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{3C157A89-BADB-4FA9-8190-94F55AE9C244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F475242-AE5F-4DFC-84C0-F84A565DF57D}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1215" windowWidth="29040" windowHeight="15840" xr2:uid="{B51BBA0F-CA22-4792-BA59-EBAA2B205FC2}"/>
   </bookViews>
@@ -304,19 +304,6 @@
 No 2T25, a JSL apresentou receita líquida de R$ 2,38 bilhões (alta de 11,1% vs 2T24), Ebitda ajustado de R$ 491,7 milhões (crescimento de 23% vs 2T24) com margem de 21,6%, e lucro líquido ajustado de R$ 36 milhões (alta de 10% vs 2T24). Destaque para a forte redução no capex líquido, que caiu 88,4%, de R$ 151,4 milhões para R$ 17,6 milhões, refletindo uma alocação de capital mais disciplinada</t>
   </si>
   <si>
-    <t xml:space="preserve">A Oncoclinicas (ONCO3) passa pelo período mais desafiador de sua história entre agosto e novembro de 2025, marcado por alavancagem insustentável de 4,4x dívida/EBITDA, resultados operacionais fracos no 2T25, e a
-aprovação de um terceiro aumento de capital em dois anos no valor de até R$ 2 bilhões.
-Durante o terceiro tri realizou a venda de alguns ativos, que espera-se refletir no resultado não recorrente. Também negociou com um acionista, Banco Master, o resgate parcelado de CDBs que a companhia havia
-adquirido do Banco Master, no volume entre R$ 20 milhões e R$ 25 milhões por 20 meses. 
-O contexto é crítico pois a empresa tem uma dívida líquida de R$ 3,9 bilhões, contra fluxos de caixa negativos e que consome as reservas da companhia, e com o Ebitda pressionado por resultados ruins nos últimos trimestres.
-Ainda no trimestre a companhia cancelou o contrato de BTS do complexo Vergueiro em São Paulo, o contrato estimava um investimento de R$ 300 milhões, 360 leitos e uma área construída de 48 mil M².
-Disputas internas com relação a OPA continuam, onde a Starboard seria obrigada a realizar por possuir mais de 15% da companhia. A Starboard submeteu uma proposta em setembro para a reorganização da empresa, que foi rejeitada pelos demais acionistas.
-A Latache vem acumulando participação na companhia, com 14,9%, e chegou solicitar que a Starboard realiza-se a OPA, que segundo a Latache a Starboard estaria obrigada a realizar. O Banco Master também é acionista da companhia, atualmente com 15%.
-O sucesso do aumento de capital de R$ 1-2 bilhões a R$ 3,00 por ação tornou-se condição primordial para evitar violação de covenant e potencial default.
-A execução das vendas de ativos, renegociações contratuais e retorno ao foco exclusivo em oncologia podem eventualmente estabilizar as operações, mas o caminho de volta à geração sustentável de caixa e lucratividade permanece incerto e carregado de riscos de execução.
-</t>
-  </si>
-  <si>
     <t>O GPA está em processo de turnaround, mas ainda enfrenta desafios significativos. A empresa demonstrou capacidade de melhorar operações e reduzir dívida, mas a resolução completa dos passivos contingentes e o retorno à lucratividade líquida ainda demandarão tempo.
 Em sua história a companhia foi capaz de se reorganizar, no entanto , hoje, com nova liderança, o sucesso dependerá da execução contínua da estratégia premium, e da manutenção da disciplina financeira em ambiente macroeconômico desafiador e de forte concorrência dos Atacarejos e dos mercados regionais, que estão em um momento que vem chamando atenção de outros grupos. Com as marcas Pão de Açucar e Extra,
 o grupo se diferenciar dos demais, apostas nos grandes centros urbanos, enquanto tenta absorver um pouco da regionalidade de cada local.
@@ -502,6 +489,20 @@
   </si>
   <si>
     <t>CC/C</t>
+  </si>
+  <si>
+    <t>A Oncoclínicas de janeiro de 2026 é fundamentalmente diferente da empresa de doze meses atrás. O objetivo de consolidar todo o ecossistema de oncologia deu lugar a uma realidade de sobrevivência e busca por eficiência.
+Embora a situação da companhia ainda seja ruim, as recentes ações da companhia indicam um caminho de recuperação, com destaques para:
+- As recentes alterações de administração e de conselho;
+- Vendas ativos ocorridas nos trimestres anteriores; 
+- Reconhecimentos de perdas ainda em 2025 limpou o balanço para refletir as ações tomadas pela companhia; 
+- Solvência Garantida (no Curto Prazo): O aumento de capital de R$ 1,4 bilhão, concluído logo após o fechamento do trimestre, afastou o risco iminente de quebra de covenants (garantias de dívida). A alavancagem ajustada caiu para cerca de 3,0x EBITDA, tirando a empresa da zona de risco existencial imediato, embora o endividamento ainda permaneça alto para o padrão brasileiro de juros.;
+- A alavancagem considerando pagamentos a fornecedores e instrumentos derivativos também caiu, e agora está em 4x Ebitda.
+       - A margem EBITDA saltou de 8,3% no 2T25 para 17,1% no 3T25, e está em 14,5% quando considerado os últimos doze meses. Isso índica que o negócio principal, clínicas oncológicas, é altamente rentável quando isolado das ineficiências dos hospitais e de operadoras ruins;
+- O indicador mais crítico para a sobrevivência da empresa foi revertido, a companhia voltou a gerar caixa operacional, R$ 246 milhões positivo. A redução do ciclo de capital de giro de 40 para 25 dias demonstra uma gestão muito mais rigorosa de estoques e recebíveis. No entanto a companhia ainda opera com prejuízo.
+A Oncoclínicas encerrou o 3T25 como uma empresa menor, porém mais saudável. A tese de investimento deixou de ser sobre "dominar o mercado via aquisições" e passou a ser um case de reestruturação onde o valor para o acionista virá da capacidade da nova gestão, liderada pela Latache, de manter as margens próximas de 18% e reduzir a dívida.
+Para o credor das dívidas, a redução da alavancagem somada a uma melhor margem operacional e o encerramento da queima de caixa que vinha ocorrendo na companhia indica uma melhora considerável no quadro apresentado nos dois primeiros trimestres de 2025.
+A expectativa de performance no curto prazo continua negativa, a espera dos resultados iniciais da nova administração da companhia. Os resultados do 4T25, a serem divulgados em 30 de março de 2026, podem servir de base para a confirmação da melhoria operacional do 3T25, caso a melhora de eficiência operacional tenha sido real e não algo momentâneo.</t>
   </si>
 </sst>
 </file>
@@ -691,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,6 +754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1129,7 +1131,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1441,7 +1443,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="7">
-        <v>45967</v>
+        <v>46031</v>
       </c>
       <c r="D13" s="4">
         <v>61</v>
@@ -1453,8 +1455,8 @@
       <c r="F13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G13" t="s">
-        <v>59</v>
+      <c r="G13" s="21" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1478,7 +1480,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1526,7 +1528,7 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1550,7 +1552,7 @@
         <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1574,12 +1576,12 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>8</v>
@@ -1598,7 +1600,7 @@
         <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1622,7 +1624,7 @@
         <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1646,7 +1648,7 @@
         <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1670,7 +1672,7 @@
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1694,7 +1696,7 @@
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1718,7 +1720,7 @@
         <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1742,7 +1744,7 @@
         <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1766,7 +1768,7 @@
         <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1790,7 +1792,7 @@
         <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1814,7 +1816,7 @@
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1863,13 +1865,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1881,7 +1883,7 @@
         <v>100</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1893,7 +1895,7 @@
         <v>89</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1905,7 +1907,7 @@
         <v>79</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1917,7 +1919,7 @@
         <v>69</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1928,7 +1930,7 @@
         <v>59</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1939,7 +1941,7 @@
         <v>49</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1950,7 +1952,7 @@
         <v>39</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1961,7 +1963,7 @@
         <v>29</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
